--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2170930.570065179</v>
+        <v>2286547.129890041</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12445555.52943491</v>
+        <v>12445534.67060185</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9520118.752926504</v>
+        <v>9520123.237734545</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.3828147651807</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>103.8014741351762</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83532033605545</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>263.3828147651807</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739395</v>
+        <v>0.279249514681924</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.3828147651807</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,10 +740,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807541</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>43.61884776044268</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>80.05068892903417</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -817,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8841809557937</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>94.15200621683057</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1660284180232</v>
+        <v>97.57643197280076</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
-        <v>110.096520216718</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H5" t="n">
-        <v>263.7138800015062</v>
+        <v>32.55518202532696</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>39.1356999930963</v>
       </c>
       <c r="D6" t="n">
-        <v>71.34882367698106</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -1023,13 +1025,13 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>15.77042013356728</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>186.9184888387365</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465031</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>232.4107563404808</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>223.4052689271916</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.24979976115235</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>190.2932553761589</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>196.4017961483599</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>119.4317014135629</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1534,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>18.7084378797731</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -1576,16 +1578,16 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>140.3829797864972</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,16 +1821,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>252.4188248364706</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>244.2124161126083</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>100.5858322992705</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>114.2935157990527</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812118</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>211.147499124903</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2378,10 +2380,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,16 +2484,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>99.97427419833861</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,10 +2535,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>220.7930342327015</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2564,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>113.4877306469562</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>26.1362719570587</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>129.1078928223861</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>214.7441689014848</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>80.88538973874932</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3661,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>37.1993334282287</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3718,16 +3720,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>125.3789405564517</v>
       </c>
     </row>
     <row r="41">
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634799</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>9.146142788180832</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>108.950103755098</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4147,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>135.0353110735031</v>
       </c>
       <c r="V46" t="n">
-        <v>245.8796921214435</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>787.4880118231665</v>
+        <v>574.0438072739749</v>
       </c>
       <c r="C2" t="n">
-        <v>787.4880118231665</v>
+        <v>574.0438072739749</v>
       </c>
       <c r="D2" t="n">
-        <v>521.4447645856103</v>
+        <v>307.6661507067969</v>
       </c>
       <c r="E2" t="n">
-        <v>521.4447645856103</v>
+        <v>307.6661507067969</v>
       </c>
       <c r="F2" t="n">
-        <v>416.5947907116949</v>
+        <v>300.7206499575934</v>
       </c>
       <c r="G2" t="n">
-        <v>403.6298206752753</v>
+        <v>287.756837184149</v>
       </c>
       <c r="H2" t="n">
-        <v>137.586573437719</v>
+        <v>21.37918061697093</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121446</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467334</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935563</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959976</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007795984</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670332</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288956</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108068</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060723</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060723</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1053.531259060723</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>1053.531259060723</v>
+        <v>840.421463841153</v>
       </c>
       <c r="U2" t="n">
-        <v>1053.531259060723</v>
+        <v>840.421463841153</v>
       </c>
       <c r="V2" t="n">
-        <v>787.4880118231665</v>
+        <v>574.0438072739749</v>
       </c>
       <c r="W2" t="n">
-        <v>787.4880118231665</v>
+        <v>574.0438072739749</v>
       </c>
       <c r="X2" t="n">
-        <v>787.4880118231665</v>
+        <v>574.0438072739749</v>
       </c>
       <c r="Y2" t="n">
-        <v>787.4880118231665</v>
+        <v>574.0438072739749</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>388.8448413236689</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="C3" t="n">
-        <v>214.3918120425419</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="D3" t="n">
-        <v>65.45740238129063</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="E3" t="n">
-        <v>65.45740238129063</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="F3" t="n">
-        <v>65.45740238129063</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="G3" t="n">
-        <v>65.45740238129063</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
-        <v>65.45740238129063</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121446</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121446</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371056</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2693060433174</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>432.7162285299038</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>642.6123592779531</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>812.4065171760993</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.278016062222</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060723</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1053.531259060723</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1053.531259060723</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>1053.531259060723</v>
+        <v>858.0464416374626</v>
       </c>
       <c r="U3" t="n">
-        <v>1053.531259060723</v>
+        <v>813.9869994551973</v>
       </c>
       <c r="V3" t="n">
-        <v>1053.531259060723</v>
+        <v>578.8348912234546</v>
       </c>
       <c r="W3" t="n">
-        <v>972.6719773142236</v>
+        <v>578.8348912234546</v>
       </c>
       <c r="X3" t="n">
-        <v>764.8204771086907</v>
+        <v>578.8348912234546</v>
       </c>
       <c r="Y3" t="n">
-        <v>557.0601783437369</v>
+        <v>371.0745924585007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>871.882794230483</v>
+        <v>119.6591628978991</v>
       </c>
       <c r="C4" t="n">
-        <v>702.9466113025761</v>
+        <v>119.6591628978991</v>
       </c>
       <c r="D4" t="n">
-        <v>702.9466113025761</v>
+        <v>119.6591628978991</v>
       </c>
       <c r="E4" t="n">
-        <v>555.033517720183</v>
+        <v>119.6591628978991</v>
       </c>
       <c r="F4" t="n">
-        <v>408.1435702222726</v>
+        <v>119.6591628978991</v>
       </c>
       <c r="G4" t="n">
-        <v>239.5736904689456</v>
+        <v>119.6591628978991</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4706538862884</v>
+        <v>119.6591628978991</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121446</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121446</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>125.4984182940717</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>315.717772996437</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>526.6665349030342</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>738.0340231670117</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>917.2498138836313</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.079201097373</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060723</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060723</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1053.531259060723</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>1053.531259060723</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>1053.531259060723</v>
+        <v>788.477863438847</v>
       </c>
       <c r="V4" t="n">
-        <v>1053.531259060723</v>
+        <v>788.477863438847</v>
       </c>
       <c r="W4" t="n">
-        <v>1053.531259060723</v>
+        <v>522.1002068716689</v>
       </c>
       <c r="X4" t="n">
-        <v>1053.531259060723</v>
+        <v>522.1002068716689</v>
       </c>
       <c r="Y4" t="n">
-        <v>1053.531259060723</v>
+        <v>301.3076277281388</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>788.4778634388467</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="C5" t="n">
-        <v>788.4778634388467</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="D5" t="n">
-        <v>788.4778634388467</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="E5" t="n">
-        <v>522.1002068716687</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="F5" t="n">
-        <v>515.1547061224652</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="G5" t="n">
-        <v>403.9460998429521</v>
+        <v>53.98113264792551</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4595,22 +4597,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.4778634388467</v>
+        <v>586.7364457822814</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>405.0163449978177</v>
+        <v>652.7312295849117</v>
       </c>
       <c r="C6" t="n">
-        <v>230.5633157166907</v>
+        <v>613.200219490875</v>
       </c>
       <c r="D6" t="n">
-        <v>158.4937968510533</v>
+        <v>464.2658098296238</v>
       </c>
       <c r="E6" t="n">
-        <v>158.4937968510533</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="F6" t="n">
         <v>158.4937968510533</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699344</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4671,25 +4673,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="U6" t="n">
-        <v>808.3837902496284</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="V6" t="n">
-        <v>573.2316820178858</v>
+        <v>652.7312295849117</v>
       </c>
       <c r="W6" t="n">
-        <v>573.2316820178858</v>
+        <v>652.7312295849117</v>
       </c>
       <c r="X6" t="n">
-        <v>573.2316820178858</v>
+        <v>652.7312295849117</v>
       </c>
       <c r="Y6" t="n">
-        <v>573.2316820178858</v>
+        <v>652.7312295849117</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>292.3946216843404</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C7" t="n">
-        <v>292.3946216843404</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>292.3946216843404</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>144.4815281019473</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>144.4815281019473</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>144.4815281019473</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>144.4815281019473</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287944</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1038.925802699391</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1038.925802699391</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>813.4567664574054</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>547.0791098902273</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="V7" t="n">
-        <v>292.3946216843404</v>
+        <v>599.6713090562845</v>
       </c>
       <c r="W7" t="n">
-        <v>292.3946216843404</v>
+        <v>599.6713090562845</v>
       </c>
       <c r="X7" t="n">
-        <v>292.3946216843404</v>
+        <v>371.6817581582671</v>
       </c>
       <c r="Y7" t="n">
-        <v>292.3946216843404</v>
+        <v>371.6817581582671</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>824.6074030911695</v>
+        <v>891.0037315986542</v>
       </c>
       <c r="C8" t="n">
-        <v>455.6448861507579</v>
+        <v>522.0412146582426</v>
       </c>
       <c r="D8" t="n">
-        <v>455.6448861507579</v>
+        <v>522.0412146582426</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251367</v>
+        <v>136.2529620599984</v>
       </c>
       <c r="F8" t="n">
-        <v>62.9111328033102</v>
+        <v>129.3074613107949</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.3702251467171</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.1757437607424</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.1862829045929</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1219.647962995227</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1655.591685209585</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2053.905718940597</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2359.356530550199</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2540.564622661165</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="V8" t="n">
-        <v>2327.580988662297</v>
+        <v>2229.499872999214</v>
       </c>
       <c r="W8" t="n">
-        <v>1974.812333392183</v>
+        <v>1876.7312177291</v>
       </c>
       <c r="X8" t="n">
-        <v>1601.346575131103</v>
+        <v>1503.26545946802</v>
       </c>
       <c r="Y8" t="n">
-        <v>1211.207243155291</v>
+        <v>1277.603571662776</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041138965631</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8510846154361</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9166749541848</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488059</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182533</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.66559839993887</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>238.3188829507236</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605191</v>
+        <v>684.7364639442758</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919908</v>
+        <v>979.2724473777573</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.935112151211</v>
+        <v>1342.338915852059</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748156</v>
+        <v>1729.423318324628</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924318</v>
+        <v>2061.310128312018</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756615</v>
+        <v>2308.345486741642</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676483</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780097</v>
+        <v>2424.8262802517</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368606615319</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.2127024906389</v>
+        <v>303.9762024452706</v>
       </c>
       <c r="C10" t="n">
-        <v>349.276519562732</v>
+        <v>303.9762024452706</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1598801503962</v>
+        <v>303.9762024452706</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800313</v>
+        <v>303.9762024452706</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800313</v>
+        <v>157.0862549473602</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800313</v>
+        <v>157.0862549473602</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800313</v>
+        <v>157.0862549473602</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.63468308380156</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.2500215676569</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.3850043368923</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>823.8653899904039</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1581.4903876165</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074498</v>
+        <v>1412.787843951769</v>
       </c>
       <c r="U10" t="n">
-        <v>1438.060467399387</v>
+        <v>1123.669470446411</v>
       </c>
       <c r="V10" t="n">
-        <v>1438.060467399387</v>
+        <v>1123.669470446411</v>
       </c>
       <c r="W10" t="n">
-        <v>1148.643297362426</v>
+        <v>834.2523004094498</v>
       </c>
       <c r="X10" t="n">
-        <v>920.6537464644088</v>
+        <v>606.2627495114325</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.8611673208786</v>
+        <v>485.6246672755103</v>
       </c>
     </row>
     <row r="11">
@@ -5021,67 +5023,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5124,22 +5126,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998291</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998291</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>194.8007783998291</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5224,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2238.116390149333</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5258,37 +5260,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5358,16 +5360,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>244.2098454714573</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2516.421633107662</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.6905094135296</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1789.538274322277</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.121104285317</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.131553387299</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.338974243769</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5528,34 +5530,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>662.1522880254209</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>493.2161050975141</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>343.0994656851783</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2345.361232772917</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2125.759767795858</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1836.684541140056</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1582.000052934169</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1292.582882897208</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="X19" t="n">
-        <v>1064.593331999191</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>843.8007528556607</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5750,10 +5752,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5768,10 +5770,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5838,19 +5840,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558405</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>2728.681365661313</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>2728.681365661313</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>2728.681365661313</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6026,7 +6028,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6069,22 +6071,22 @@
         <v>2381.235169913446</v>
       </c>
       <c r="K24" t="n">
-        <v>2381.235169913446</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L24" t="n">
-        <v>2644.045655650152</v>
+        <v>3195.95538588944</v>
       </c>
       <c r="M24" t="n">
-        <v>3241.424143276704</v>
+        <v>3793.333873515992</v>
       </c>
       <c r="N24" t="n">
-        <v>3869.022106831311</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="O24" t="n">
-        <v>4420.931837070598</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="P24" t="n">
-        <v>4420.931837070598</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q24" t="n">
         <v>4654.193497445481</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998291</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998291</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,25 +6214,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.55866301478</v>
@@ -6239,34 +6241,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6455,37 +6457,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>251.5626541092265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>746.8882603249853</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951537</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098242</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819173</v>
+        <v>2991.228530604268</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695815</v>
+        <v>2991.228530604268</v>
       </c>
       <c r="E31" t="n">
-        <v>516.3896878871884</v>
+        <v>2843.315437021874</v>
       </c>
       <c r="F31" t="n">
-        <v>369.499740389278</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G31" t="n">
-        <v>202.303641104158</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.963083580261</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924459</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718572</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783594</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640064</v>
+        <v>3160.164713532175</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6698,22 +6700,22 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,19 +6727,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6774,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M33" t="n">
-        <v>1540.888753373306</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C34" t="n">
-        <v>2757.723669558405</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D34" t="n">
-        <v>2757.723669558405</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>2609.810575976011</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>2609.810575976011</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>1182.055381897054</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>961.2628027535235</v>
       </c>
     </row>
     <row r="35">
@@ -6914,13 +6916,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6929,55 +6931,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7020,16 +7022,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951537</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="38">
@@ -7169,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,10 +7210,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7263,16 +7265,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>948.5505208511905</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C40" t="n">
-        <v>779.6143379232836</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2342.342295561725</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2122.740830584667</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1833.665603928865</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1578.981115722978</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W40" t="n">
-        <v>1578.981115722978</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X40" t="n">
-        <v>1350.99156482496</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y40" t="n">
-        <v>1130.19898568143</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,10 +7426,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7454,7 +7456,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7490,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452613</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2824.769373306003</v>
+        <v>3118.73869457197</v>
       </c>
       <c r="C43" t="n">
-        <v>2655.833190378096</v>
+        <v>2949.802511644064</v>
       </c>
       <c r="D43" t="n">
-        <v>2655.833190378096</v>
+        <v>2799.685872231728</v>
       </c>
       <c r="E43" t="n">
-        <v>2655.833190378096</v>
+        <v>2651.772778649335</v>
       </c>
       <c r="F43" t="n">
-        <v>2646.594662309226</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024106</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H43" t="n">
         <v>2337.686731866304</v>
@@ -7591,28 +7593,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.978318053498</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T43" t="n">
-        <v>4288.376853076439</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U43" t="n">
-        <v>3999.301626420637</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V43" t="n">
-        <v>3744.61713821475</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W43" t="n">
-        <v>3455.19996817779</v>
+        <v>3567.520824613518</v>
       </c>
       <c r="X43" t="n">
-        <v>3227.210417279773</v>
+        <v>3339.5312737155</v>
       </c>
       <c r="Y43" t="n">
-        <v>3006.417838136243</v>
+        <v>3118.73869457197</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7673,22 +7675,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7728,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M45" t="n">
-        <v>738.7889117913853</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510509</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V46" t="n">
-        <v>1729.097755135313</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877293</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079451</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8073,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>96.89877181692327</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127268</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>105.9060266940988</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8155,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775173</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8295,7 +8297,7 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127241</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127223</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>114.3555089013358</v>
+        <v>138.3837121690882</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.98618304348504</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23422,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>40.64330621514742</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>33.76564955277351</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>42.31058222398266</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>80.44045370237413</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>111.4161395899845</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405067</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24178,16 +24180,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>75.03697526434112</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>45.44677382459264</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>65.72996410388953</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>6.257951202385186</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>31.93331737597502</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>36.41624546988277</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>10.96548648755231</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>171.2522535850787</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>143.8269525734159</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>93.20571279564307</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>136.2749052347504</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>177.572894581493</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>151.1491633157411</v>
       </c>
       <c r="V46" t="n">
-        <v>6.257951202384504</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>837132.9298999904</v>
+        <v>837146.3634591221</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>842716.2307364327</v>
+        <v>842706.5517672512</v>
       </c>
     </row>
     <row r="5">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>818125.5910602278</v>
+        <v>818125.5910602279</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>818125.5910602278</v>
+        <v>818125.5910602279</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>818125.5910602278</v>
+        <v>818125.5910602279</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="H2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="J2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="K2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="K2" t="n">
-        <v>605359.9497675044</v>
-      </c>
       <c r="L2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="M2" t="n">
-        <v>605359.9497675042</v>
-      </c>
       <c r="N2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="O2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909297</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680939067</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059436</v>
+        <v>390680.0076580794</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507909.2320606931</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642105</v>
+        <v>68999.1544191141</v>
       </c>
       <c r="K3" t="n">
-        <v>85.205597742625</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756973</v>
+        <v>95270.23779101775</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132717.975695469</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252222.594432086</v>
+        <v>252122.0652631774</v>
       </c>
       <c r="C4" t="n">
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141542.82055258</v>
+        <v>141668.8507447209</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
         <v>11776.97621680582</v>
@@ -26439,7 +26441,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
@@ -26454,7 +26456,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680585</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557691</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92902.867575679</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-379165.1411703797</v>
+        <v>-379476.5216604245</v>
       </c>
       <c r="C6" t="n">
-        <v>300244.9885626747</v>
+        <v>300611.4589307686</v>
       </c>
       <c r="D6" t="n">
-        <v>-9827.629400155507</v>
+        <v>-9470.398580267007</v>
       </c>
       <c r="E6" t="n">
-        <v>-15024.99789775441</v>
+        <v>-15448.78833390157</v>
       </c>
       <c r="F6" t="n">
-        <v>492460.4437267915</v>
+        <v>492460.4437267916</v>
       </c>
       <c r="G6" t="n">
         <v>492460.4437267917</v>
       </c>
       <c r="H6" t="n">
-        <v>492460.4437267913</v>
+        <v>492460.4437267912</v>
       </c>
       <c r="I6" t="n">
-        <v>492460.4437267917</v>
+        <v>492460.4437267915</v>
       </c>
       <c r="J6" t="n">
-        <v>423547.9105403702</v>
+        <v>423461.2893076769</v>
       </c>
       <c r="K6" t="n">
-        <v>492375.2381290488</v>
+        <v>492460.4437267911</v>
       </c>
       <c r="L6" t="n">
-        <v>397077.7975892214</v>
+        <v>397190.2059357736</v>
       </c>
       <c r="M6" t="n">
-        <v>359853.1499978646</v>
+        <v>359742.4680313222</v>
       </c>
       <c r="N6" t="n">
-        <v>492460.4437267917</v>
+        <v>492460.4437267915</v>
       </c>
       <c r="O6" t="n">
+        <v>492460.4437267911</v>
+      </c>
+      <c r="P6" t="n">
         <v>492460.4437267912</v>
-      </c>
-      <c r="P6" t="n">
-        <v>492460.4437267914</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26722,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960515</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>933.7024595627832</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651807</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.1406900856962</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,16 +26813,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26914,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26957,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960515</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734268875</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480611</v>
+        <v>319.6474457933049</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>434.2730407788907</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651807</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363255144</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985329</v>
+        <v>376.42681008419</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.5675980139524</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651811</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363255144</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.42681008419</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.5675980139524</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651807</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363255144</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985329</v>
+        <v>376.42681008419</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.5675980139524</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>91.30022685550227</v>
+        <v>90.9691616191767</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>303.0745716065352</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>50.82255116533749</v>
+        <v>50.47975262776174</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.0273700322152</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179689</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627104</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1482595335101</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.36944370495422</v>
+        <v>64.03837846862865</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27458,10 +27460,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,10 +27472,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0233325848003</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48524054500679</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642701</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.161321588189</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8434583985096</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545278323952</v>
+        <v>182.2356397431119</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>171.6442942318855</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27537,28 +27539,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>58.23472231055099</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>24.57414155200777</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825652</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718864</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196193</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2165417078037</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586585345273</v>
+        <v>22.54475050117124</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508475</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
-        <v>302.737654428992</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H5" t="n">
-        <v>50.47975262776178</v>
+        <v>281.638450603941</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27669,10 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>133.5727989952194</v>
       </c>
       <c r="D6" t="n">
-        <v>76.0962418876577</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27743,13 +27745,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27794,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>15.07219909888208</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>111.7341827500966</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.5447505011713</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>65.21915448509151</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27868,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>95.34150212965412</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>162.832669728862</v>
       </c>
     </row>
     <row r="9">
@@ -27983,7 +27985,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.776449164528771</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>89.82535797284069</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>99.15295193853184</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -29272,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -30457,7 +30459,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6.751381063403296e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079602</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524898</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646646</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029076</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933472</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876046</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460615</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061214</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316486</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231209</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973326</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753592</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827649</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142096</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263681</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410375</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148968</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333967</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435872</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970823</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.647971728972</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
-        <v>334.504662696348</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682317</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466123</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439952</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774367</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621612</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564884</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311992</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857962996</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106798402665011</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058012</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923506</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841626</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.589850782353</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653054</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195707</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187285</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.440923314869</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005027</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770378</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528311</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735295</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477772</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354611</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.753577726885558</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.44132789546673</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7098053157556</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.5802175972534</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.4691627763192</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.3427171354932</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.0954050359942</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>669.7602577525079</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.4356192307896</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.7691690983022</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.3441667542131</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.7856768864751</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.53465245140474</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43128649944154</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3002862181508446</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00834113943693</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.39634732035141</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.14683309026273</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.7441951079426</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.3030514502169</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.0654741571282</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>508.8678404617168</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.3360580152216</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>477.8354464519085</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.5050724947591</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.3629847463703</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.6933209204789</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.30405581366401</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.095024154133938</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.68372574675256</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.96985254840004</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.63422518415882</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6183185772519</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.3240987490124</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>263.9316641023126</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.6559590462351</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>237.9869810046255</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.6389757708731</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.70643221307417</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.34274778658778</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.194100917942754</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09183958618650337</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,13 +31846,13 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>309.7666854143572</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366847</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
@@ -31862,7 +31864,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32078,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>138.5955196772183</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32090,7 +32092,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>354.9153144485699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>404.0195168876581</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>146.0225991093084</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>640.7275049411307</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>379.8551982710416</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>615.0381444378773</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>416.4300581532619</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>543.0832917018711</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>302.3396059822671</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>742.9354859824765</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622129</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836665</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176174</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187887</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095305</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099619</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678514</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288308</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272335</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490978</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743297</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848984</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021679</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>215.0217160465882</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.53862929141513</v>
+        <v>125.9385470877691</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>105.4826193059165</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256215</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814113</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979571</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289087</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1407951653962</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.517230266009392</v>
+        <v>6.560263827497113</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659563</v>
@@ -35033,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877686</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.5343130705671</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.3793117313386</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.576302165506</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>428.7491718087215</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.347194155917</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.3374078091028</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.5361733430327</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.0384768797636</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.20013907234301</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>188.9976037816848</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560635</v>
+        <v>450.9268494884365</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>297.511094377254</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.7338065396985</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>390.9943459318883</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.2392020074641</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.5306650804288</v>
       </c>
       <c r="Q9" t="n">
-        <v>230.8362312321904</v>
+        <v>254.7649228294369</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.6802301787332</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.348826751369</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>277.9141240093286</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.5155410641532</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.7881314254637</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.5721089186652</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9175350357666</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.82702814228587</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35492,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>171.212305634483</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533515</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
@@ -35510,7 +35512,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7540807028593151</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35738,7 +35740,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>220.9409070342396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>265.465137107784</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>8.181160134949373</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>498.1312604966863</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>242.0137592966826</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>472.904110515859</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>274.2960242312436</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>163.7852262023929</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>611.5937738991432</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2286547.129890041</v>
+        <v>2282242.790080173</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9520123.237734545</v>
+        <v>9520123.237734543</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>110.0965202167181</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,61 +673,61 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>115.3066195468971</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>263.7138800015063</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.279249514681924</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>212.2897156032232</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>263.7138800015063</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,25 +740,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>28.65656447570984</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>43.61884776044268</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>97.57643197280076</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>86.47169502885201</v>
       </c>
     </row>
     <row r="5">
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>32.55518202532696</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -955,10 +955,10 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>123.7911484401897</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>127.4695742187188</v>
       </c>
       <c r="C6" t="n">
-        <v>39.1356999930963</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1059,10 +1059,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>30.35581875858473</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>186.9184888387365</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824949</v>
+        <v>11.54915978824951</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>12.43313727869358</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465031</v>
+        <v>65.76608425465082</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646899</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>223.4052689271916</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614505</v>
+        <v>92.83909691614512</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115235</v>
+        <v>20.2497997611526</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>134.379115290174</v>
       </c>
       <c r="T9" t="n">
-        <v>190.2932553761589</v>
+        <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092543744329</v>
+        <v>224.0328052098876</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>119.4317014135629</v>
+        <v>42.41005138884665</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>140.3829797864972</v>
+        <v>35.88641949135589</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>244.2124161126083</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2010,16 +2010,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>114.2935157990527</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2086,13 +2086,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>211.147499124903</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2535,16 +2535,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>220.7930342327015</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>133.8107367464748</v>
       </c>
     </row>
     <row r="26">
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695369</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>245.8796921214428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>113.4877306469562</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>214.7441689014848</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,13 +3483,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>80.88538973874932</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409458224</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>125.3789405564517</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710093</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>41.33703994142951</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>108.950103755098</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>135.0353110735031</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574.0438072739749</v>
+        <v>522.1002068716689</v>
       </c>
       <c r="C2" t="n">
-        <v>574.0438072739749</v>
+        <v>410.8916005921557</v>
       </c>
       <c r="D2" t="n">
-        <v>307.6661507067969</v>
+        <v>410.8916005921557</v>
       </c>
       <c r="E2" t="n">
-        <v>307.6661507067969</v>
+        <v>410.8916005921557</v>
       </c>
       <c r="F2" t="n">
-        <v>300.7206499575934</v>
+        <v>403.9460998429522</v>
       </c>
       <c r="G2" t="n">
-        <v>287.756837184149</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.37918061697093</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M2" t="n">
         <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4360,22 +4360,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>840.421463841153</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>840.421463841153</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>574.0438072739749</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>574.0438072739749</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>574.0438072739749</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>574.0438072739749</v>
+        <v>788.477863438847</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>202.8592554384327</v>
+        <v>604.2061662380652</v>
       </c>
       <c r="C3" t="n">
-        <v>202.8592554384327</v>
+        <v>429.7531369569381</v>
       </c>
       <c r="D3" t="n">
-        <v>202.8592554384327</v>
+        <v>280.8187272956869</v>
       </c>
       <c r="E3" t="n">
-        <v>202.8592554384327</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="F3" t="n">
-        <v>202.8592554384327</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004804</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1007.573611489876</v>
       </c>
       <c r="T3" t="n">
-        <v>858.0464416374626</v>
+        <v>1007.573611489876</v>
       </c>
       <c r="U3" t="n">
-        <v>813.9869994551973</v>
+        <v>1007.573611489876</v>
       </c>
       <c r="V3" t="n">
-        <v>578.8348912234546</v>
+        <v>772.4215032581333</v>
       </c>
       <c r="W3" t="n">
-        <v>578.8348912234546</v>
+        <v>772.4215032581333</v>
       </c>
       <c r="X3" t="n">
-        <v>578.8348912234546</v>
+        <v>772.4215032581333</v>
       </c>
       <c r="Y3" t="n">
-        <v>371.0745924585007</v>
+        <v>772.4215032581333</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119.6591628978991</v>
+        <v>484.8363344083309</v>
       </c>
       <c r="C4" t="n">
-        <v>119.6591628978991</v>
+        <v>315.900151480424</v>
       </c>
       <c r="D4" t="n">
-        <v>119.6591628978991</v>
+        <v>315.900151480424</v>
       </c>
       <c r="E4" t="n">
-        <v>119.6591628978991</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F4" t="n">
-        <v>119.6591628978991</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>119.6591628978991</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>119.6591628978991</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
         <v>21.0971104001205</v>
@@ -4521,19 +4521,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>788.477863438847</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>788.477863438847</v>
+        <v>800.1710318001382</v>
       </c>
       <c r="W4" t="n">
-        <v>522.1002068716689</v>
+        <v>800.1710318001382</v>
       </c>
       <c r="X4" t="n">
-        <v>522.1002068716689</v>
+        <v>572.1814809021208</v>
       </c>
       <c r="Y4" t="n">
-        <v>301.3076277281388</v>
+        <v>484.8363344083309</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>586.7364457822814</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="C5" t="n">
-        <v>586.7364457822814</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="D5" t="n">
-        <v>586.7364457822814</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="E5" t="n">
-        <v>586.7364457822814</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="F5" t="n">
-        <v>320.3587892151035</v>
+        <v>34.06092317356496</v>
       </c>
       <c r="G5" t="n">
-        <v>53.98113264792551</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T5" t="n">
-        <v>840.4214638411526</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="U5" t="n">
-        <v>586.7364457822814</v>
+        <v>432.4256445709462</v>
       </c>
       <c r="V5" t="n">
-        <v>586.7364457822814</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="W5" t="n">
-        <v>586.7364457822814</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="X5" t="n">
-        <v>586.7364457822814</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="Y5" t="n">
-        <v>586.7364457822814</v>
+        <v>41.00642392276843</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>652.7312295849117</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C6" t="n">
-        <v>613.200219490875</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D6" t="n">
-        <v>464.2658098296238</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>305.0283548241683</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>158.4937968510533</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
         <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>478.451922227869</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166544</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>887.8833378166544</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>887.8833378166544</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>652.7312295849117</v>
+        <v>819.7034117742824</v>
       </c>
       <c r="W6" t="n">
-        <v>652.7312295849117</v>
+        <v>565.4660550460808</v>
       </c>
       <c r="X6" t="n">
-        <v>652.7312295849117</v>
+        <v>357.614554840548</v>
       </c>
       <c r="Y6" t="n">
-        <v>652.7312295849117</v>
+        <v>149.854256075594</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.0332933280274</v>
+        <v>386.0368194650771</v>
       </c>
       <c r="C7" t="n">
-        <v>21.09711040012049</v>
+        <v>217.1006365371702</v>
       </c>
       <c r="D7" t="n">
-        <v>21.09711040012049</v>
+        <v>66.98399712483445</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287944</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551007</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O7" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4758,19 +4758,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>788.4778634388466</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>599.6713090562845</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>599.6713090562845</v>
+        <v>788.477863438847</v>
       </c>
       <c r="X7" t="n">
-        <v>371.6817581582671</v>
+        <v>788.477863438847</v>
       </c>
       <c r="Y7" t="n">
-        <v>371.6817581582671</v>
+        <v>567.6852842953168</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>891.0037315986542</v>
+        <v>517.7742035243432</v>
       </c>
       <c r="C8" t="n">
-        <v>522.0412146582426</v>
+        <v>148.8116865839315</v>
       </c>
       <c r="D8" t="n">
-        <v>522.0412146582426</v>
+        <v>148.8116865839315</v>
       </c>
       <c r="E8" t="n">
-        <v>136.2529620599984</v>
+        <v>148.8116865839315</v>
       </c>
       <c r="F8" t="n">
-        <v>129.3074613107949</v>
+        <v>141.866185834728</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6416433428661</v>
+        <v>130.2003678667992</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428661</v>
+        <v>117.6416433428663</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685537</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467171</v>
+        <v>187.3702251467157</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607424</v>
+        <v>442.1757437607392</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045929</v>
+        <v>795.1862829045879</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995227</v>
+        <v>1219.64796299522</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209585</v>
+        <v>1655.591685209575</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940597</v>
+        <v>2053.905718940585</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550199</v>
+        <v>2359.356530550185</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661165</v>
+        <v>2540.56462266115</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342785</v>
+        <v>2560.562760342768</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342785</v>
+        <v>2560.562760342768</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342785</v>
+        <v>2351.810676439041</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342785</v>
+        <v>2351.810676439041</v>
       </c>
       <c r="V8" t="n">
-        <v>2229.499872999214</v>
+        <v>2020.747789095471</v>
       </c>
       <c r="W8" t="n">
-        <v>1876.7312177291</v>
+        <v>1667.979133825356</v>
       </c>
       <c r="X8" t="n">
-        <v>1503.26545946802</v>
+        <v>1294.513375564277</v>
       </c>
       <c r="Y8" t="n">
-        <v>1277.603571662776</v>
+        <v>904.3740435884649</v>
       </c>
     </row>
     <row r="9">
@@ -4877,43 +4877,43 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993887</v>
+        <v>71.6655983999388</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685537</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507236</v>
+        <v>238.3188829507226</v>
       </c>
       <c r="K9" t="n">
-        <v>684.7364639442758</v>
+        <v>684.7364639442735</v>
       </c>
       <c r="L9" t="n">
-        <v>979.2724473777573</v>
+        <v>1091.982190524989</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.338915852059</v>
+        <v>1455.048658999289</v>
       </c>
       <c r="N9" t="n">
-        <v>1729.423318324628</v>
+        <v>1842.133061471856</v>
       </c>
       <c r="O9" t="n">
-        <v>2061.310128312018</v>
+        <v>2174.019871459244</v>
       </c>
       <c r="P9" t="n">
-        <v>2308.345486741642</v>
+        <v>2421.055229888867</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342785</v>
+        <v>2536.272628442611</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342785</v>
+        <v>2560.562760342768</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.8262802517</v>
+        <v>2424.826280251683</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610870780833</v>
+        <v>2230.816477685332</v>
       </c>
       <c r="U9" t="n">
         <v>2004.520714847062</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>303.9762024452706</v>
+        <v>350.0726622545847</v>
       </c>
       <c r="C10" t="n">
-        <v>303.9762024452706</v>
+        <v>350.0726622545847</v>
       </c>
       <c r="D10" t="n">
-        <v>303.9762024452706</v>
+        <v>199.9560228422489</v>
       </c>
       <c r="E10" t="n">
-        <v>303.9762024452706</v>
+        <v>199.9560228422489</v>
       </c>
       <c r="F10" t="n">
-        <v>157.0862549473602</v>
+        <v>199.9560228422489</v>
       </c>
       <c r="G10" t="n">
-        <v>157.0862549473602</v>
+        <v>199.9560228422489</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473602</v>
+        <v>51.21125520685537</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685537</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380156</v>
+        <v>76.63468308380079</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676569</v>
+        <v>248.2500215676554</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368923</v>
+        <v>523.3850043368898</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904039</v>
+        <v>823.8653899904004</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.635640101609</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931091</v>
+        <v>1382.582027931086</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.4903876165</v>
+        <v>1581.490387616495</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477357</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477357</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477357</v>
       </c>
       <c r="T10" t="n">
-        <v>1412.787843951769</v>
+        <v>1635.769145477357</v>
       </c>
       <c r="U10" t="n">
-        <v>1123.669470446411</v>
+        <v>1346.650771971999</v>
       </c>
       <c r="V10" t="n">
-        <v>1123.669470446411</v>
+        <v>1091.966283766112</v>
       </c>
       <c r="W10" t="n">
-        <v>834.2523004094498</v>
+        <v>802.5491137291515</v>
       </c>
       <c r="X10" t="n">
-        <v>606.2627495114325</v>
+        <v>574.5595628311341</v>
       </c>
       <c r="Y10" t="n">
-        <v>485.6246672755103</v>
+        <v>531.7211270848244</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,58 +5035,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249853</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951537</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2238.116390149333</v>
+        <v>2410.714175003133</v>
       </c>
       <c r="T13" t="n">
-        <v>2018.514925172274</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U13" t="n">
-        <v>2018.514925172274</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5269,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5372,13 +5372,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.5811134804959</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C16" t="n">
-        <v>615.644930552589</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402533</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W16" t="n">
-        <v>1187.022157454266</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X16" t="n">
-        <v>1187.022157454266</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y16" t="n">
-        <v>966.2295783107356</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="17">
@@ -5512,7 +5512,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5521,16 +5521,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1616.556199993915</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5755,16 +5755,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1983.7822433412</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1729.097755135313</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5971,16 +5971,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6028,10 +6028,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>3195.95538588944</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>3793.333873515992</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>4420.931837070599</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1465.362586952987</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>1237.37303605497</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>1016.58045691144</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="26">
@@ -6205,70 +6205,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168622</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6463,7 +6463,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3160.164713532175</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>2991.228530604268</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2991.228530604268</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2843.315437021874</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3160.164713532175</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6736,10 +6736,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6782,19 +6782,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>779.6143379232838</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1182.055381897054</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>961.2628027535235</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6940,16 +6940,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.6905094135296</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C37" t="n">
-        <v>700.7543264856228</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.131553387299</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.338974243769</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7402,61 +7402,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192832</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111739</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075831</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3118.73869457197</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C43" t="n">
-        <v>2949.802511644064</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D43" t="n">
-        <v>2799.685872231728</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>2651.772778649335</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>2504.882831151424</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3567.520824613518</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3339.5312737155</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>3118.73869457197</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7654,13 +7654,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7675,10 +7675,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>680.448174698413</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069086</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127268</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,10 +8303,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>45.78351343583211</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>51.53815565544051</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127223</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>113.848225401248</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.3837121690882</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348504</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>40.64330621514742</v>
+        <v>145.1398665102887</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>42.31058222398266</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>111.4161395899845</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>75.03697526434112</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>65.72996410388953</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>84.77391660562003</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>6.257951202385186</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>31.93331737597502</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>10.96548648755231</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>171.2522535850787</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.20571279564307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>177.572894581493</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>151.1491633157411</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>842706.5517672512</v>
+        <v>842706.5517672511</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.327398213</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="F2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="H2" t="n">
         <v>605359.9497675046</v>
       </c>
-      <c r="G2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="J2" t="n">
         <v>605359.9497675042</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.949767504</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="M2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="N2" t="n">
-        <v>605359.9497675045</v>
-      </c>
       <c r="O2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="P2" t="n">
         <v>605359.9497675041</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580794</v>
+        <v>390680.0076580751</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606931</v>
+        <v>507909.2320606967</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101775</v>
+        <v>95270.2377910167</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.975695469</v>
+        <v>132717.9756954699</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252122.0652631774</v>
+        <v>252122.0652631775</v>
       </c>
       <c r="C4" t="n">
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141668.8507447209</v>
+        <v>141668.8507447221</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26441,7 +26441,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.9762168059</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
@@ -26456,7 +26456,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680574</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26472,10 +26472,10 @@
         <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.867575679</v>
+        <v>92902.86757567868</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-379476.5216604245</v>
+        <v>-379476.5216604244</v>
       </c>
       <c r="C6" t="n">
-        <v>300611.4589307686</v>
+        <v>300611.4589307684</v>
       </c>
       <c r="D6" t="n">
-        <v>-9470.398580267007</v>
+        <v>-9470.398580262903</v>
       </c>
       <c r="E6" t="n">
-        <v>-15448.78833390157</v>
+        <v>-15796.16758826231</v>
       </c>
       <c r="F6" t="n">
-        <v>492460.4437267916</v>
+        <v>492113.0644724345</v>
       </c>
       <c r="G6" t="n">
-        <v>492460.4437267917</v>
+        <v>492113.0644724344</v>
       </c>
       <c r="H6" t="n">
-        <v>492460.4437267912</v>
+        <v>492113.0644724346</v>
       </c>
       <c r="I6" t="n">
-        <v>492460.4437267915</v>
+        <v>492113.0644724346</v>
       </c>
       <c r="J6" t="n">
-        <v>423461.2893076769</v>
+        <v>423113.9100533202</v>
       </c>
       <c r="K6" t="n">
-        <v>492460.4437267911</v>
+        <v>492113.0644724342</v>
       </c>
       <c r="L6" t="n">
-        <v>397190.2059357736</v>
+        <v>396842.8266814175</v>
       </c>
       <c r="M6" t="n">
-        <v>359742.4680313222</v>
+        <v>359395.0887769648</v>
       </c>
       <c r="N6" t="n">
-        <v>492460.4437267915</v>
+        <v>492113.0644724342</v>
       </c>
       <c r="O6" t="n">
-        <v>492460.4437267911</v>
+        <v>492113.0644724344</v>
       </c>
       <c r="P6" t="n">
-        <v>492460.4437267912</v>
+        <v>492113.0644724342</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627832</v>
+        <v>933.7024595627798</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,13 +26792,13 @@
         <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856962</v>
+        <v>640.1406900856921</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933049</v>
+        <v>319.6474457933015</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788907</v>
+        <v>434.2730407788939</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.42681008419</v>
+        <v>376.4268100841859</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139524</v>
+        <v>532.5675980139561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.713880001506</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.42681008419</v>
+        <v>376.4268100841859</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139524</v>
+        <v>532.5675980139561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.42681008419</v>
+        <v>376.4268100841859</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139524</v>
+        <v>532.5675980139561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619743</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>255.1763715542895</v>
       </c>
       <c r="D2" t="n">
-        <v>90.9691616191767</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776174</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.0273700322152</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862865</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545473</v>
       </c>
     </row>
     <row r="3">
@@ -27460,25 +27460,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>118.4933709364889</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>182.2356397431119</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -27557,7 +27557,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>24.57414155200777</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>15.07219909888208</v>
@@ -27593,19 +27593,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117124</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508475</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>132.1129583232428</v>
       </c>
     </row>
     <row r="5">
@@ -27627,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>281.638450603941</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,10 +27675,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>203.9611100299452</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590676</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,22 +27694,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>39.06360943114855</v>
       </c>
       <c r="C6" t="n">
-        <v>133.5727989952194</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
         <v>99.47932027120974</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
@@ -27757,13 +27757,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27779,10 +27779,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>116.0781438879844</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27830,19 +27830,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117134</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>65.21915448509151</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508475</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>288.600336941607</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348406</v>
+        <v>123.4854171348409</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0453666896857</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>162.832669728862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27985,10 +27985,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.776449164528771</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.776449164545312</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28016,22 +28016,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430997</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>101.5869591640956</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>194.6738502503846</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.15295193853184</v>
+        <v>176.1746019632481</v>
       </c>
     </row>
     <row r="11">
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29325,13 +29325,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.605826582817826e-12</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -30459,10 +30459,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-6.486328715517441e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-1.750004968523274e-12</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885558</v>
+        <v>3.753577726885544</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546673</v>
+        <v>38.44132789546659</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157556</v>
+        <v>144.7098053157551</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972534</v>
+        <v>318.5802175972523</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763192</v>
+        <v>477.4691627763174</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354932</v>
+        <v>592.3427171354911</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359942</v>
+        <v>659.0954050359918</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525079</v>
+        <v>669.7602577525054</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307896</v>
+        <v>632.4356192307872</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983022</v>
+        <v>539.7691690983003</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542131</v>
+        <v>405.3441667542116</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864751</v>
+        <v>235.7856768864743</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140474</v>
+        <v>85.53465245140443</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944154</v>
+        <v>16.43128649944148</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508446</v>
+        <v>0.3002862181508435</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00834113943693</v>
+        <v>2.008341139436923</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035141</v>
+        <v>19.39634732035134</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026273</v>
+        <v>69.14683309026248</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079426</v>
+        <v>189.7441951079419</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502169</v>
+        <v>324.3030514502157</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571282</v>
+        <v>436.0654741571266</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617168</v>
+        <v>508.8678404617149</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152216</v>
+        <v>522.3360580152197</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519085</v>
+        <v>477.8354464519068</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947591</v>
+        <v>383.5050724947577</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463703</v>
+        <v>256.3629847463693</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204789</v>
+        <v>124.6933209204785</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366401</v>
+        <v>37.30405581366387</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133938</v>
+        <v>8.09502415413391</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419033</v>
+        <v>0.1321277065419029</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.68372574675256</v>
+        <v>1.683725746752554</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840004</v>
+        <v>14.96985254839999</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415882</v>
+        <v>50.63422518415863</v>
       </c>
       <c r="J10" t="n">
-        <v>119.039410295406</v>
+        <v>119.0394102954055</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772519</v>
+        <v>195.6183185772512</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490124</v>
+        <v>250.3240987490115</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023126</v>
+        <v>263.9316641023116</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462351</v>
+        <v>257.6559590462342</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046255</v>
+        <v>237.9869810046247</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708731</v>
+        <v>203.6389757708724</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939803</v>
+        <v>140.9890713939797</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307417</v>
+        <v>75.7064322130739</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658778</v>
+        <v>29.34274778658767</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942754</v>
+        <v>7.194100917942727</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650337</v>
+        <v>0.09183958618650304</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>138.5955196772184</v>
       </c>
       <c r="L12" t="n">
-        <v>309.7666854143572</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>363.5371514786841</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,16 +32101,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32259,7 +32259,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32326,16 +32326,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3420541567482</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,16 +32560,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>641.2555750770852</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,7 +32794,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>624.2063432190395</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>260.1710714068256</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>640.7275049411307</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>379.8551982710416</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33511,13 +33511,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,22 +33742,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067255</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,10 +34207,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>543.0832917018711</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,7 +34453,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>302.3396059822671</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127262</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877691</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,10 +35023,10 @@
         <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>238.3094620181794</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="O6" t="n">
         <v>171.6550983098281</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877686</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705671</v>
+        <v>137.534313070566</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313386</v>
+        <v>257.3793117313369</v>
       </c>
       <c r="L8" t="n">
-        <v>356.576302165506</v>
+        <v>356.5763021655038</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087215</v>
+        <v>428.7491718087191</v>
       </c>
       <c r="N8" t="n">
-        <v>440.347194155917</v>
+        <v>440.3471941559145</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091028</v>
+        <v>402.3374078091005</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430327</v>
+        <v>308.5361733430307</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797636</v>
+        <v>183.0384768797621</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234301</v>
+        <v>20.20013907234215</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816848</v>
+        <v>188.9976037816841</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884365</v>
+        <v>450.9268494884353</v>
       </c>
       <c r="L9" t="n">
-        <v>297.511094377254</v>
+        <v>411.3593197785004</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396985</v>
+        <v>366.7338065396966</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318883</v>
+        <v>390.9943459318864</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074641</v>
+        <v>335.2392020074623</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804288</v>
+        <v>249.5306650804274</v>
       </c>
       <c r="Q9" t="n">
-        <v>254.7649228294369</v>
+        <v>116.3812106603478</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783532</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.6802301787332</v>
+        <v>25.68023017873276</v>
       </c>
       <c r="K10" t="n">
-        <v>173.348826751369</v>
+        <v>173.3488267513683</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093286</v>
+        <v>277.9141240093277</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641532</v>
+        <v>303.5155410641522</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254637</v>
+        <v>301.7881314254628</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186652</v>
+        <v>262.5721089186644</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357666</v>
+        <v>200.9175350357659</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228587</v>
+        <v>54.82702814228536</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="L12" t="n">
-        <v>171.212305634483</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>220.9409070342396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35974,16 +35974,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>97.00034207341486</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,16 +36208,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>509.9138629937518</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,7 +36442,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>485.6519634391653</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>122.3296324324666</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>498.1312604966863</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>242.0137592966826</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37159,13 +37159,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236319604</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,7 +38101,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>163.7852262023929</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2282242.790080173</v>
+        <v>2284003.320382958</v>
       </c>
     </row>
     <row r="7">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>110.0965202167181</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>212.568965117905</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015063</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="3">
@@ -740,13 +740,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>28.65656447570984</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>175.5844527629987</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>189.9938653344675</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>86.47169502885201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>12.84496163790562</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -955,10 +955,10 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>123.7911484401897</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.4695742187188</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>10.18456372565657</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>30.35581875858473</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>53.91567440413856</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824951</v>
+        <v>11.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>12.43313727869358</v>
+        <v>250.1366763690518</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465082</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646899</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614512</v>
+        <v>92.83909691614508</v>
       </c>
       <c r="I9" t="n">
-        <v>20.2497997611526</v>
+        <v>20.24979976115243</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.379115290174</v>
+        <v>132.6026661256392</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0328052098876</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>49.52236200932915</v>
       </c>
       <c r="H10" t="n">
         <v>147.2573199590396</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>42.41005138884665</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>114.9322208041616</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>35.88641949135589</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238327</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>152.2221689967031</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.8253826161906772</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890432</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701367</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>99.97427419833856</v>
       </c>
       <c r="H19" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428209</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>133.8107367464748</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695369</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703199</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701367</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>18.70843787977304</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805175799</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>9.14614278817986</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>38.95525409458224</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>104.8913819999782</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410136</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710093</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>41.33703994142951</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428932</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>104.8913819999782</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>522.1002068716689</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="C2" t="n">
-        <v>410.8916005921557</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D2" t="n">
-        <v>410.8916005921557</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E2" t="n">
-        <v>410.8916005921557</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>403.9460998429522</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
@@ -4375,7 +4375,7 @@
         <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.477863438847</v>
+        <v>788.4778634388467</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.2061662380652</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>429.7531369569381</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>280.8187272956869</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
         <v>21.0971104001205</v>
@@ -4409,25 +4409,25 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004804</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699346</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267552</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4436,25 +4436,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1007.573611489876</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1007.573611489876</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>1007.573611489876</v>
+        <v>859.1616031188769</v>
       </c>
       <c r="V3" t="n">
-        <v>772.4215032581333</v>
+        <v>859.1616031188769</v>
       </c>
       <c r="W3" t="n">
-        <v>772.4215032581333</v>
+        <v>604.9242463906753</v>
       </c>
       <c r="X3" t="n">
-        <v>772.4215032581333</v>
+        <v>397.0727461851425</v>
       </c>
       <c r="Y3" t="n">
-        <v>772.4215032581333</v>
+        <v>189.3124474201885</v>
       </c>
     </row>
     <row r="4">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>484.8363344083309</v>
+        <v>634.9529738206666</v>
       </c>
       <c r="C4" t="n">
-        <v>315.900151480424</v>
+        <v>466.0167908927597</v>
       </c>
       <c r="D4" t="n">
         <v>315.900151480424</v>
@@ -4494,7 +4494,7 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
         <v>527.7368878375337</v>
@@ -4524,16 +4524,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>800.1710318001382</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>800.1710318001382</v>
+        <v>862.9425247186839</v>
       </c>
       <c r="X4" t="n">
-        <v>572.1814809021208</v>
+        <v>634.9529738206666</v>
       </c>
       <c r="Y4" t="n">
-        <v>484.8363344083309</v>
+        <v>634.9529738206666</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.00642392276843</v>
+        <v>53.98113264792562</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276843</v>
+        <v>53.98113264792562</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276843</v>
+        <v>53.98113264792562</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276843</v>
+        <v>53.98113264792562</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356496</v>
+        <v>47.03563189872214</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>34.07181912527768</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>34.07181912527768</v>
       </c>
       <c r="I5" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>686.1106626298174</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="U5" t="n">
-        <v>432.4256445709462</v>
+        <v>586.7364457822816</v>
       </c>
       <c r="V5" t="n">
-        <v>307.3840804899465</v>
+        <v>320.3587892151036</v>
       </c>
       <c r="W5" t="n">
-        <v>41.00642392276843</v>
+        <v>53.98113264792562</v>
       </c>
       <c r="X5" t="n">
-        <v>41.00642392276843</v>
+        <v>53.98113264792562</v>
       </c>
       <c r="Y5" t="n">
-        <v>41.00642392276843</v>
+        <v>53.98113264792562</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.0971104001205</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>21.0971104001205</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>21.0971104001205</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>21.0971104001205</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
         <v>21.0971104001205</v>
@@ -4649,49 +4649,49 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M6" t="n">
-        <v>478.451922227869</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293602</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>819.7034117742824</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>565.4660550460808</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>357.614554840548</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>149.854256075594</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>386.0368194650771</v>
+        <v>818.7467779998875</v>
       </c>
       <c r="C7" t="n">
-        <v>217.1006365371702</v>
+        <v>649.8105950719806</v>
       </c>
       <c r="D7" t="n">
-        <v>66.98399712483445</v>
+        <v>499.6939556596449</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434482</v>
+        <v>351.7808620772518</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434482</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="G7" t="n">
         <v>36.32155393434482</v>
@@ -4728,19 +4728,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4764,13 +4764,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>788.477863438847</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>788.477863438847</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y7" t="n">
-        <v>567.6852842953168</v>
+        <v>1000.395242830127</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>517.7742035243432</v>
+        <v>726.5262874280806</v>
       </c>
       <c r="C8" t="n">
-        <v>148.8116865839315</v>
+        <v>726.5262874280806</v>
       </c>
       <c r="D8" t="n">
-        <v>148.8116865839315</v>
+        <v>726.5262874280806</v>
       </c>
       <c r="E8" t="n">
-        <v>148.8116865839315</v>
+        <v>726.5262874280806</v>
       </c>
       <c r="F8" t="n">
-        <v>141.866185834728</v>
+        <v>315.5403826384731</v>
       </c>
       <c r="G8" t="n">
-        <v>130.2003678667992</v>
+        <v>303.8745646705443</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428663</v>
+        <v>51.21125520685558</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685537</v>
+        <v>51.21125520685558</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467157</v>
+        <v>187.3702251467166</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607392</v>
+        <v>442.1757437607412</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045879</v>
+        <v>795.1862829045913</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.64796299522</v>
+        <v>1219.647962995225</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209575</v>
+        <v>1655.591685209581</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940585</v>
+        <v>2053.905718940592</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550185</v>
+        <v>2359.356530550194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.56462266115</v>
+        <v>2540.564622661159</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342768</v>
+        <v>2560.562760342779</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342768</v>
+        <v>2560.562760342779</v>
       </c>
       <c r="T8" t="n">
-        <v>2351.810676439041</v>
+        <v>2560.562760342779</v>
       </c>
       <c r="U8" t="n">
-        <v>2351.810676439041</v>
+        <v>2560.562760342779</v>
       </c>
       <c r="V8" t="n">
-        <v>2020.747789095471</v>
+        <v>2229.499872999208</v>
       </c>
       <c r="W8" t="n">
-        <v>1667.979133825356</v>
+        <v>1876.731217729094</v>
       </c>
       <c r="X8" t="n">
-        <v>1294.513375564277</v>
+        <v>1503.265459468014</v>
       </c>
       <c r="Y8" t="n">
-        <v>904.3740435884649</v>
+        <v>1113.126127492202</v>
       </c>
     </row>
     <row r="9">
@@ -4877,43 +4877,43 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.6655983999388</v>
+        <v>71.66559839993884</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685537</v>
+        <v>51.21125520685558</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507226</v>
+        <v>113.4887579637185</v>
       </c>
       <c r="K9" t="n">
-        <v>684.7364639442735</v>
+        <v>298.0857543148174</v>
       </c>
       <c r="L9" t="n">
-        <v>1091.982190524989</v>
+        <v>592.6217377482983</v>
       </c>
       <c r="M9" t="n">
-        <v>1455.048658999289</v>
+        <v>1226.361020933136</v>
       </c>
       <c r="N9" t="n">
-        <v>1842.133061471856</v>
+        <v>1842.133061471864</v>
       </c>
       <c r="O9" t="n">
-        <v>2174.019871459244</v>
+        <v>2174.019871459253</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888867</v>
+        <v>2421.055229888877</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442611</v>
+        <v>2536.272628442622</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342768</v>
+        <v>2560.562760342779</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251683</v>
+        <v>2426.620673347184</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685332</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
         <v>2004.520714847062</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>350.0726622545847</v>
+        <v>715.9213805686134</v>
       </c>
       <c r="C10" t="n">
-        <v>350.0726622545847</v>
+        <v>546.9851976407065</v>
       </c>
       <c r="D10" t="n">
-        <v>199.9560228422489</v>
+        <v>396.8685582283707</v>
       </c>
       <c r="E10" t="n">
-        <v>199.9560228422489</v>
+        <v>396.8685582283707</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9560228422489</v>
+        <v>249.9786107304604</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9560228422489</v>
+        <v>199.9560228422491</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685537</v>
+        <v>51.21125520685558</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685537</v>
+        <v>51.21125520685558</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380079</v>
+        <v>76.63468308380129</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676554</v>
+        <v>248.2500215676564</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368898</v>
+        <v>523.3850043368914</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904004</v>
+        <v>823.8653899904027</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101609</v>
+        <v>1122.635640101611</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931086</v>
+        <v>1382.58202793109</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616495</v>
+        <v>1581.490387616498</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477357</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477357</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477357</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477357</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="U10" t="n">
-        <v>1346.650771971999</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="V10" t="n">
-        <v>1091.966283766112</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="W10" t="n">
-        <v>802.5491137291515</v>
+        <v>1346.351975440401</v>
       </c>
       <c r="X10" t="n">
-        <v>574.5595628311341</v>
+        <v>1118.362424542383</v>
       </c>
       <c r="Y10" t="n">
-        <v>531.7211270848244</v>
+        <v>897.5698453988531</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>244.2098454714574</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L12" t="n">
-        <v>739.5354516872161</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.913939313768</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>1963.765362972545</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2515.675093211832</v>
       </c>
       <c r="P12" t="n">
         <v>2516.421633107662</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>985.7836617409656</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>816.8474788130587</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>666.730839400723</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>518.8177458183299</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2410.714175003133</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T13" t="n">
-        <v>2191.112710026075</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1905.631426649713</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1616.214256612753</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1388.224705714735</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>1167.432126571205</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,64 +5266,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
@@ -5369,7 +5369,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.0655846733346</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C16" t="n">
-        <v>411.1294017454277</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138359</v>
       </c>
       <c r="Y16" t="n">
-        <v>761.7140495035743</v>
+        <v>916.2946447138359</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,52 +5503,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G19" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6205,52 +6205,52 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168622</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492579</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400644</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121575</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121575</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121575</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121575</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910802</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.56011257081</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279795</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853354</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580254</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832656</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.06254548756</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510501</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854699</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648812</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611852</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138343</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703041</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6478,25 +6478,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123002</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,28 +6712,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.853600740068</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121611</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121611</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121611</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121611</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138379</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703078</v>
       </c>
     </row>
     <row r="35">
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6955,13 +6955,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>702.4944101284095</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>533.5582272005026</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D37" t="n">
-        <v>383.4415877881669</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E37" t="n">
-        <v>235.5284942057738</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1104.935454102179</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>884.1428749586493</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7153,58 +7153,58 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>513.8536007400712</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192832</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111739</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803938</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400789</v>
       </c>
       <c r="C43" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121721</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121721</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121721</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121721</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578603</v>
+        <v>177.721318527052</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797821</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910817</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570825</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.08939327981</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853369</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580268</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832671</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487575</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510516</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854714</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648827</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611866</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138488</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703187</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069086</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775173</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8297,16 +8297,16 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>45.78351343583211</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>51.53815565544051</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>113.848225401248</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.4068835459969</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>230.9976142082419</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>30.48882721876964</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>145.1398665102887</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>27.60981118523424</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>65.54986409393101</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393028</v>
       </c>
       <c r="H19" t="n">
-        <v>121.5862749664513</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>84.77391660562003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194895</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>138.4949402405109</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038566</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>186.7544012944549</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>41.54258064659096</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>107.2784330767828</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392193454</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>62.35543909864963</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>818125.5910602278</v>
+        <v>818125.5910602277</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>818125.5910602278</v>
+        <v>818125.5910602277</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>818125.5910602278</v>
+        <v>818125.5910602279</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>818125.5910602278</v>
+        <v>818125.5910602279</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="C2" t="n">
+        <v>615781.3273982123</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982122</v>
       </c>
-      <c r="D2" t="n">
-        <v>615781.327398213</v>
-      </c>
       <c r="E2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="F2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="H2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="J2" t="n">
         <v>605359.9497675046</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675042</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="L2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.9497675041</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675046</v>
       </c>
       <c r="N2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580751</v>
+        <v>390680.0076580778</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606967</v>
+        <v>507909.2320606947</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191141</v>
+        <v>68999.15441911397</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.2377910167</v>
+        <v>95270.23779101732</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954699</v>
+        <v>132717.9756954694</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,16 +26423,16 @@
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141668.8507447221</v>
+        <v>141668.8507447213</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680572</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680572</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680574</v>
       </c>
       <c r="H4" t="n">
         <v>11776.97621680582</v>
@@ -26441,22 +26441,22 @@
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.9762168059</v>
+        <v>11776.97621680572</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680574</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680577</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680574</v>
+        <v>11776.97621680592</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567868</v>
+        <v>92902.86757567889</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-379476.5216604244</v>
+        <v>-379476.5216604246</v>
       </c>
       <c r="C6" t="n">
-        <v>300611.4589307684</v>
+        <v>300611.4589307686</v>
       </c>
       <c r="D6" t="n">
-        <v>-9470.398580262903</v>
+        <v>-9470.398580265843</v>
       </c>
       <c r="E6" t="n">
-        <v>-15796.16758826231</v>
+        <v>-15483.52625933882</v>
       </c>
       <c r="F6" t="n">
-        <v>492113.0644724345</v>
+        <v>492425.7058013558</v>
       </c>
       <c r="G6" t="n">
-        <v>492113.0644724344</v>
+        <v>492425.7058013558</v>
       </c>
       <c r="H6" t="n">
-        <v>492113.0644724346</v>
+        <v>492425.7058013554</v>
       </c>
       <c r="I6" t="n">
-        <v>492113.0644724346</v>
+        <v>492425.7058013555</v>
       </c>
       <c r="J6" t="n">
-        <v>423113.9100533202</v>
+        <v>423426.551382242</v>
       </c>
       <c r="K6" t="n">
-        <v>492113.0644724342</v>
+        <v>492425.7058013555</v>
       </c>
       <c r="L6" t="n">
-        <v>396842.8266814175</v>
+        <v>397155.4680103385</v>
       </c>
       <c r="M6" t="n">
-        <v>359395.0887769648</v>
+        <v>359707.7301058861</v>
       </c>
       <c r="N6" t="n">
-        <v>492113.0644724342</v>
+        <v>492425.7058013554</v>
       </c>
       <c r="O6" t="n">
-        <v>492113.0644724344</v>
+        <v>492425.7058013559</v>
       </c>
       <c r="P6" t="n">
-        <v>492113.0644724342</v>
+        <v>492425.7058013555</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26724,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26743,7 +26743,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627798</v>
+        <v>933.702459562782</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856921</v>
+        <v>640.1406900856947</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="O4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933015</v>
+        <v>319.6474457933036</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788939</v>
+        <v>434.2730407788922</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841859</v>
+        <v>376.4268100841885</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139561</v>
+        <v>532.5675980139541</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,16 +27041,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841859</v>
+        <v>376.4268100841883</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139561</v>
+        <v>532.5675980139541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841859</v>
+        <v>376.4268100841885</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139561</v>
+        <v>532.5675980139541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619743</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>255.1763715542895</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>142.1140765027779</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442038</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545473</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -27460,13 +27460,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,7 +27475,7 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>43.92180400150558</v>
@@ -27508,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>118.4933709364889</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>50.27003474055596</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>96.52913300212353</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>132.1129583232428</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27636,7 +27636,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>102.4616579089915</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,10 +27675,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>203.9611100299452</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590676</v>
+        <v>85.52708871590681</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.06360943114855</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27754,13 +27754,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.5884214778209</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>116.0781438879844</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508475</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>164.6689789479562</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>288.600336941607</v>
+        <v>50.89679785124866</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465048</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348409</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
         <v>251.0453666896857</v>
@@ -27982,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.776449164534625</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.776449164545312</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>116.784891602377</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430997</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640956</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503846</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
         <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>176.1746019632481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.367759797364126e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28307,7 +28307,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-4.742294036391132e-12</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28326,10 +28326,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28341,10 +28341,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,13 +28377,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28550,7 +28550,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-6.023067408807101e-12</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -28623,13 +28623,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-1.736439038534721e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29103,7 +29103,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29325,13 +29325,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.605826582817826e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29571,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30459,10 +30459,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>-1.750004968523274e-12</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30647,7 +30647,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>7.517303009959066e-12</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885544</v>
+        <v>3.753577726885553</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546659</v>
+        <v>38.44132789546668</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157551</v>
+        <v>144.7098053157554</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972523</v>
+        <v>318.580217597253</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763174</v>
+        <v>477.4691627763185</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354911</v>
+        <v>592.3427171354924</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359918</v>
+        <v>659.0954050359933</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525054</v>
+        <v>669.760257752507</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307872</v>
+        <v>632.4356192307887</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983003</v>
+        <v>539.7691690983015</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542116</v>
+        <v>405.3441667542126</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864743</v>
+        <v>235.7856768864748</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140443</v>
+        <v>85.53465245140463</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944148</v>
+        <v>16.43128649944152</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508435</v>
+        <v>0.3002862181508442</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436923</v>
+        <v>2.008341139436927</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035134</v>
+        <v>19.39634732035138</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026248</v>
+        <v>69.14683309026265</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079419</v>
+        <v>189.7441951079424</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502157</v>
+        <v>324.3030514502165</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571266</v>
+        <v>436.0654741571276</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617149</v>
+        <v>508.8678404617161</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152197</v>
+        <v>522.3360580152208</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519068</v>
+        <v>477.8354464519079</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947577</v>
+        <v>383.5050724947586</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463693</v>
+        <v>256.3629847463699</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204785</v>
+        <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366387</v>
+        <v>37.30405581366396</v>
       </c>
       <c r="T9" t="n">
-        <v>8.09502415413391</v>
+        <v>8.095024154133927</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419029</v>
+        <v>0.1321277065419032</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752554</v>
+        <v>1.683725746752557</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254839999</v>
+        <v>14.96985254840002</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415863</v>
+        <v>50.63422518415874</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954055</v>
+        <v>119.0394102954058</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772512</v>
+        <v>195.6183185772516</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490115</v>
+        <v>250.3240987490121</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023116</v>
+        <v>263.9316641023123</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462342</v>
+        <v>257.6559590462347</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046247</v>
+        <v>237.9869810046252</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708724</v>
+        <v>203.6389757708729</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939797</v>
+        <v>140.9890713939801</v>
       </c>
       <c r="R10" t="n">
-        <v>75.7064322130739</v>
+        <v>75.70643221307407</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658767</v>
+        <v>29.34274778658774</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942727</v>
+        <v>7.194100917942744</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650304</v>
+        <v>0.09183958618650324</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>138.5955196772184</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>134.7284881171886</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200299</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067255</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127262</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827497113</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>238.3094620181794</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>263.7138800015063</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
         <v>171.6550983098281</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.534313070566</v>
+        <v>137.5343130705667</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313369</v>
+        <v>257.379311731338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655038</v>
+        <v>356.5763021655052</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087191</v>
+        <v>428.7491718087206</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559145</v>
+        <v>440.347194155916</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091005</v>
+        <v>402.3374078091019</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430307</v>
+        <v>308.536173343032</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797621</v>
+        <v>183.0384768797631</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234215</v>
+        <v>20.20013907234269</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816841</v>
+        <v>62.90656844127568</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884353</v>
+        <v>186.4616124758575</v>
       </c>
       <c r="L9" t="n">
-        <v>411.3593197785004</v>
+        <v>297.5110943772534</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396966</v>
+        <v>640.1406900856947</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318864</v>
+        <v>621.9919601401294</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074623</v>
+        <v>335.2392020074635</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804274</v>
+        <v>249.5306650804283</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603478</v>
+        <v>116.3812106603484</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783532</v>
+        <v>24.53548676783562</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873276</v>
+        <v>25.68023017873304</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513683</v>
+        <v>173.3488267513688</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093277</v>
+        <v>277.9141240093282</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641522</v>
+        <v>303.5155410641528</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254628</v>
+        <v>301.7881314254633</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186644</v>
+        <v>262.5721089186649</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357659</v>
+        <v>200.9175350357663</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228536</v>
+        <v>54.8270281422857</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7540807028594299</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.7540807028583389</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366966</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010377</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899037</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236319604</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.342014319139</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
